--- a/Company X - SKU Master.xlsx
+++ b/Company X - SKU Master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cointab\Human Resource\Hiring\Data Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Notebboks\CoinTab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,17 +366,17 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -383,7 +384,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>8904223815682</v>
       </c>
       <c r="B2">
@@ -391,7 +392,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>8904223815859</v>
       </c>
       <c r="B3">
@@ -399,7 +400,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>8904223815866</v>
       </c>
       <c r="B4">
@@ -407,7 +408,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>8904223815873</v>
       </c>
       <c r="B5">
@@ -415,7 +416,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>8904223816214</v>
       </c>
       <c r="B6">
@@ -423,7 +424,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>8904223816665</v>
       </c>
       <c r="B7">
@@ -431,7 +432,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>8904223817273</v>
       </c>
       <c r="B8">
@@ -439,7 +440,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8904223817334</v>
       </c>
       <c r="B9">
@@ -447,7 +448,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8904223817501</v>
       </c>
       <c r="B10">
@@ -455,7 +456,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>8904223818430</v>
       </c>
       <c r="B11">
@@ -463,7 +464,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>8904223818478</v>
       </c>
       <c r="B12">
@@ -471,7 +472,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>8904223818553</v>
       </c>
       <c r="B13">
@@ -479,7 +480,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>8904223818577</v>
       </c>
       <c r="B14">
@@ -487,7 +488,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>8904223818591</v>
       </c>
       <c r="B15">
@@ -495,7 +496,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>8904223818614</v>
       </c>
       <c r="B16">
@@ -503,7 +504,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>8904223818638</v>
       </c>
       <c r="B17">
@@ -511,7 +512,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>8904223818645</v>
       </c>
       <c r="B18">
@@ -519,7 +520,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>8904223818669</v>
       </c>
       <c r="B19">
@@ -527,7 +528,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>8904223818683</v>
       </c>
       <c r="B20">
@@ -535,7 +536,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>8904223818706</v>
       </c>
       <c r="B21">
@@ -543,7 +544,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>8904223818713</v>
       </c>
       <c r="B22">
@@ -551,7 +552,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>8904223815804</v>
       </c>
       <c r="B23">
@@ -559,7 +560,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>8904223818454</v>
       </c>
       <c r="B24">
@@ -567,7 +568,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>8904223818751</v>
       </c>
       <c r="B25">
@@ -575,7 +576,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>8904223818850</v>
       </c>
       <c r="B26">
@@ -583,7 +584,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>8904223818935</v>
       </c>
       <c r="B27">
@@ -591,7 +592,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>8904223818874</v>
       </c>
       <c r="B28">
@@ -599,7 +600,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>8904223818997</v>
       </c>
       <c r="B29">
@@ -607,7 +608,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>8904223818942</v>
       </c>
       <c r="B30">
@@ -615,7 +616,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>8904223819024</v>
       </c>
       <c r="B31">
@@ -623,7 +624,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>8904223819031</v>
       </c>
       <c r="B32">
@@ -631,7 +632,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>8904223818980</v>
       </c>
       <c r="B33">
@@ -639,7 +640,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>8904223819017</v>
       </c>
       <c r="B34">
@@ -647,7 +648,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>8904223819093</v>
       </c>
       <c r="B35">
@@ -655,7 +656,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>8904223819109</v>
       </c>
       <c r="B36">
@@ -663,7 +664,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>8904223819116</v>
       </c>
       <c r="B37">
@@ -671,7 +672,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>8904223819161</v>
       </c>
       <c r="B38">
@@ -679,7 +680,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>8904223819147</v>
       </c>
       <c r="B39">
@@ -687,7 +688,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>8904223819130</v>
       </c>
       <c r="B40">
@@ -695,7 +696,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>8904223818881</v>
       </c>
       <c r="B41">
@@ -703,7 +704,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>8904223818898</v>
       </c>
       <c r="B42">
@@ -711,7 +712,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>8904223819277</v>
       </c>
       <c r="B43">
@@ -719,7 +720,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>8904223819284</v>
       </c>
       <c r="B44">
@@ -727,7 +728,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>8904223819345</v>
       </c>
       <c r="B45">
@@ -735,7 +736,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>8904223819352</v>
       </c>
       <c r="B46">
@@ -743,7 +744,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>8904223819239</v>
       </c>
       <c r="B47">
@@ -751,7 +752,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>8904223819246</v>
       </c>
       <c r="B48">
@@ -759,7 +760,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>8904223819253</v>
       </c>
       <c r="B49">
@@ -767,7 +768,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>8904223819291</v>
       </c>
       <c r="B50">
@@ -775,7 +776,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>8904223819437</v>
       </c>
       <c r="B51">
@@ -783,7 +784,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B52">
@@ -791,7 +792,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B53">
@@ -799,7 +800,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B54">
@@ -807,7 +808,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>8904223819369</v>
       </c>
       <c r="B55">
@@ -815,7 +816,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B56">
@@ -823,7 +824,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>8904223819123</v>
       </c>
       <c r="B57">
@@ -831,7 +832,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B58">
@@ -839,7 +840,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>8904223819468</v>
       </c>
       <c r="B59">
@@ -847,7 +848,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>8904223819260</v>
       </c>
       <c r="B60">
@@ -855,7 +856,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>8904223819321</v>
       </c>
       <c r="B61">
@@ -863,7 +864,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>8904223819338</v>
       </c>
       <c r="B62">
@@ -871,7 +872,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>8904223819505</v>
       </c>
       <c r="B63">
@@ -879,7 +880,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>8904223819499</v>
       </c>
       <c r="B64">
@@ -887,7 +888,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>8904223819512</v>
       </c>
       <c r="B65">
@@ -895,7 +896,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>8904223819543</v>
       </c>
       <c r="B66">
@@ -903,7 +904,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B67">
@@ -912,5 +913,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>